--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_0_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_0_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.003853303141875153</v>
+        <v>3.462542164101023e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.003853303141875153</v>
+        <v>3.462542164101023e-08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>32.09299200388886</v>
+        <v>60.66627607951715</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[8.928100019319096, 55.25788398845862]</t>
+          <t>[36.77702247559904, 84.55552968343525]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.007695029061124181</v>
+        <v>6.271387400502704e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>0.007695029061124181</v>
+        <v>6.271387400502704e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.805079262422964</v>
+        <v>2.182447749340658</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.8365001460008861, 2.7736583788450426]</t>
+          <t>[1.792500312859043, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0004975022675424157</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0004975022675424157</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="T2" t="n">
-        <v>43.91715267602601</v>
+        <v>60.39289084692335</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[30.447822707175035, 57.38648264487699]</t>
+          <t>[47.912051322166306, 72.8737303716804]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.48082801973726e-08</v>
+        <v>1.157296480869263e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>4.48082801973726e-08</v>
+        <v>1.157296480869263e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.52340340340385</v>
+        <v>16.94938938938979</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.51693693693728</v>
+        <v>15.33763763763801</v>
       </c>
       <c r="Z2" t="n">
-        <v>22.52986986987041</v>
+        <v>18.56114114114158</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.000283011721634252</v>
+        <v>0.0001162856580482208</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000283011721634252</v>
+        <v>0.0001162856580482208</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>43.1254014967661</v>
+        <v>51.08778163160643</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[18.605523167911002, 67.64527982562119]</t>
+          <t>[23.120853840658086, 79.05470942255478]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0009366889738744444</v>
+        <v>0.0006227802674536598</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0009366889738744444</v>
+        <v>0.0006227802674536598</v>
       </c>
       <c r="P3" t="n">
-        <v>1.33965812855781</v>
+        <v>1.289342330302117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 2.0063424554457336]</t>
+          <t>[0.6729738016698859, 1.9057108589343477]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0002013373742335567</v>
+        <v>0.0001193954919762596</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002013373742335567</v>
+        <v>0.0001193954919762596</v>
       </c>
       <c r="T3" t="n">
-        <v>50.89496052479056</v>
+        <v>60.6148913010818</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.73013776571818, 65.05978328386294]</t>
+          <t>[44.89977636708264, 76.33000623508097]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.545547493961521e-09</v>
+        <v>7.501173016066787e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>4.545547493961521e-09</v>
+        <v>7.501173016066787e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>20.44858858858908</v>
+        <v>20.64082082082132</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.69089089089132</v>
+        <v>18.09321321321365</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.20628628628684</v>
+        <v>23.18842842842898</v>
       </c>
     </row>
     <row r="4">
@@ -737,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.02614224900906281</v>
+        <v>5.092953192187277e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02614224900906281</v>
+        <v>5.092953192187277e-05</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>31.29413825022549</v>
+        <v>67.90801604408148</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[3.425459822602157, 59.16281667784883]</t>
+          <t>[31.35186700813245, 104.46416508003051]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.02859757319774592</v>
+        <v>0.000516066722537456</v>
       </c>
       <c r="O4" t="n">
-        <v>0.02859757319774592</v>
+        <v>0.000516066722537456</v>
       </c>
       <c r="P4" t="n">
-        <v>0.4088158608275005</v>
+        <v>0.735868549489501</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[-0.754736973835386, 1.572368695490387]</t>
+          <t>[0.2201316173686534, 1.2516054816103486]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.4828068872963578</v>
+        <v>0.006170650697357782</v>
       </c>
       <c r="S4" t="n">
-        <v>0.4828068872963578</v>
+        <v>0.006170650697357782</v>
       </c>
       <c r="T4" t="n">
-        <v>50.41137299475211</v>
+        <v>70.00408831373407</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[35.22315275993969, 65.59959322956453]</t>
+          <t>[51.09280786407818, 88.91536876338996]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.991567993326782e-08</v>
+        <v>2.16102713501698e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>2.991567993326782e-08</v>
+        <v>2.16102713501698e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>24.29895895895954</v>
+        <v>22.92846846846902</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.48599599599646</v>
+        <v>20.79679679679729</v>
       </c>
       <c r="Z4" t="n">
-        <v>29.11192192192262</v>
+        <v>25.06014014014074</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.429966136612393e-07</v>
+        <v>8.442234152761241e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.429966136612393e-07</v>
+        <v>8.442234152761241e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>63.72053278627913</v>
+        <v>58.34801399331155</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[42.02936226864476, 85.4117033039135]</t>
+          <t>[29.238736204734167, 87.45729178188893]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>4.150570787064822e-07</v>
+        <v>0.0002077543971854556</v>
       </c>
       <c r="O5" t="n">
-        <v>4.150570787064822e-07</v>
+        <v>0.0002077543971854556</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1320789704211922</v>
+        <v>0.3585000625718084</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.24528951649650121, 0.5094474573388856]</t>
+          <t>[-0.22013161736865428, 0.9371317425122712]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.4844828117249897</v>
+        <v>0.2185337462402988</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4844828117249897</v>
+        <v>0.2185337462402988</v>
       </c>
       <c r="T5" t="n">
-        <v>63.34867375642065</v>
+        <v>68.84336299860581</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[50.442171234548354, 76.25517627829295]</t>
+          <t>[52.331235342062996, 85.35549065514863]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>7.4451556031363e-13</v>
+        <v>9.168532599801438e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4451556031363e-13</v>
+        <v>9.168532599801438e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>25.44366366366427</v>
+        <v>24.48822822822881</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.88270270270327</v>
+        <v>22.09659659659712</v>
       </c>
       <c r="Z5" t="n">
-        <v>27.00462462462528</v>
+        <v>26.8798598598605</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.003739923372979237</v>
+        <v>0.001219809814260397</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003739923372979237</v>
+        <v>0.001219809814260397</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>40.88657400338748</v>
+        <v>43.38461606112249</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[8.160439396698195, 73.61270861007677]</t>
+          <t>[15.713139427331598, 71.05609269491337]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.01549292252559886</v>
+        <v>0.002837384147732269</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01549292252559886</v>
+        <v>0.002837384147732269</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.8050527720910781</v>
+        <v>-0.2390000417145384</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-1.496894998106848, -0.11321054607530812]</t>
+          <t>[-0.9685791164220783, 0.49057903299300154]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.02357118876624509</v>
+        <v>0.5127499295517957</v>
       </c>
       <c r="S6" t="n">
-        <v>0.02357118876624509</v>
+        <v>0.5127499295517957</v>
       </c>
       <c r="T6" t="n">
-        <v>61.04824743456155</v>
+        <v>67.76964284941288</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.21993228881047, 77.87656258031262]</t>
+          <t>[52.42061741338472, 83.11866828544103]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>3.584758045960257e-09</v>
+        <v>1.796940374276801e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.584758045960257e-09</v>
+        <v>1.796940374276801e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>3.330050050050129</v>
+        <v>0.9878478478478705</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4682882882883002</v>
+        <v>-2.027687687687739</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.191811811811958</v>
+        <v>4.003383383383479</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03511250602280258</v>
+        <v>1.292125954543977e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03511250602280258</v>
+        <v>1.292125954543977e-05</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>29.91924666783981</v>
+        <v>58.95675279055251</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[0.07162126994148821, 59.76687206573814]</t>
+          <t>[28.957953778203432, 88.95555180290158]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.04947567164463718</v>
+        <v>0.0002654984500507496</v>
       </c>
       <c r="O7" t="n">
-        <v>0.04947567164463718</v>
+        <v>0.0002654984500507496</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.9056843686024632</v>
+        <v>-0.5912106295043857</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-2.7673689040630807, 0.9560001668581544]</t>
+          <t>[-1.1069475616252324, -0.07547369738353904]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.3324066793438516</v>
+        <v>0.02560033529143357</v>
       </c>
       <c r="S7" t="n">
-        <v>0.3324066793438516</v>
+        <v>0.02560033529143357</v>
       </c>
       <c r="T7" t="n">
-        <v>57.44783048669619</v>
+        <v>73.62751606790103</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.02564117948422, 73.87001979390817]</t>
+          <t>[57.88776042809127, 89.36727170771078]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>8.718009425479067e-09</v>
+        <v>3.250066882287683e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>8.718009425479067e-09</v>
+        <v>3.250066882287683e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>3.746306306306398</v>
+        <v>2.443623623623683</v>
       </c>
       <c r="Y7" t="n">
-        <v>-3.954434434434525</v>
+        <v>0.3119519519519613</v>
       </c>
       <c r="Z7" t="n">
-        <v>11.44704704704732</v>
+        <v>4.575295295295405</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.99000000000062</v>
+        <v>25.97000000000062</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.802346411590051e-07</v>
+        <v>0.0001541061788941089</v>
       </c>
       <c r="I8" t="n">
-        <v>2.802346411590051e-07</v>
+        <v>0.0001541061788941089</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>68.11717296652394</v>
+        <v>50.75187419528145</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[39.0320898364056, 97.20225609664227]</t>
+          <t>[19.26995262010422, 82.23379577045867]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.34524916615797e-05</v>
+        <v>0.00220674558812517</v>
       </c>
       <c r="O8" t="n">
-        <v>2.34524916615797e-05</v>
+        <v>0.00220674558812517</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.031473864241693</v>
+        <v>-0.7170001251436169</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.471737098979001, -0.5912106295043857]</t>
+          <t>[-1.2956318050840787, -0.13836844520315505]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.331945767708454e-05</v>
+        <v>0.01630266950170522</v>
       </c>
       <c r="S8" t="n">
-        <v>2.331945767708454e-05</v>
+        <v>0.01630266950170522</v>
       </c>
       <c r="T8" t="n">
-        <v>76.15317990901721</v>
+        <v>56.66591671683103</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[60.73886198830925, 91.56749782972517]</t>
+          <t>[40.7329740739031, 72.59885935975896]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.072919944699606e-13</v>
+        <v>5.83978465584778e-09</v>
       </c>
       <c r="W8" t="n">
-        <v>6.072919944699606e-13</v>
+        <v>5.83978465584778e-09</v>
       </c>
       <c r="X8" t="n">
-        <v>4.266626626626728</v>
+        <v>2.963543543543615</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.445505505505566</v>
+        <v>0.5719119119119287</v>
       </c>
       <c r="Z8" t="n">
-        <v>6.08774774774789</v>
+        <v>5.355175175175301</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.5500000000004</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.90295277913944e-06</v>
+        <v>8.546725352043261e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>9.90295277913944e-06</v>
+        <v>8.546725352043261e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>62.02942993389998</v>
+        <v>51.4641115454054</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[36.62198272526817, 87.4368771425318]</t>
+          <t>[22.550296062310835, 80.37792702849997]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>1.211290847447088e-05</v>
+        <v>0.0008256520003879775</v>
       </c>
       <c r="O9" t="n">
-        <v>1.211290847447088e-05</v>
+        <v>0.0008256520003879775</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.572368695490387</v>
+        <v>-1.119526511189155</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-2.1006845771751568, -1.0440528138056173]</t>
+          <t>[-1.7233160902574642, -0.5157369321208467]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.183205310453019e-07</v>
+        <v>0.0005271026078337293</v>
       </c>
       <c r="S9" t="n">
-        <v>3.183205310453019e-07</v>
+        <v>0.0005271026078337293</v>
       </c>
       <c r="T9" t="n">
-        <v>63.571815718704</v>
+        <v>67.49945576877728</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.29811113834834, 79.84552029905967]</t>
+          <t>[51.94938006663972, 83.04953147091484]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.370008882010779e-10</v>
+        <v>2.934985587899064e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>5.370008882010779e-10</v>
+        <v>2.934985587899064e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>6.143643643643742</v>
+        <v>4.48118118118127</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.079379379379445</v>
+        <v>2.064364364364406</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.207907907908039</v>
+        <v>6.897997997998135</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.5500000000004</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002593600598358448</v>
+        <v>0.003659314374704237</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002593600598358448</v>
+        <v>0.003659314374704237</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>43.28620029689502</v>
+        <v>41.98735553859395</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[16.12962653685969, 70.44277405693035]</t>
+          <t>[13.68992514043498, 70.28478593675293]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.002447384377810558</v>
+        <v>0.004529329455255082</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002447384377810558</v>
+        <v>0.004529329455255082</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.597526594618233</v>
+        <v>-1.547210796362541</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.465474114528927, -0.729579074707539]</t>
+          <t>[-2.4403162154010807, -0.6541053773240013]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.0005725508823923864</v>
+        <v>0.001095654488354247</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0005725508823923864</v>
+        <v>0.001095654488354247</v>
       </c>
       <c r="T10" t="n">
-        <v>57.44526017216629</v>
+        <v>62.42782407981408</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.56503608320237, 74.3254842611302]</t>
+          <t>[45.28102707188113, 79.57462108774703]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.67689229169099e-08</v>
+        <v>3.277776716714698e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67689229169099e-08</v>
+        <v>3.277776716714698e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>6.241941941942041</v>
+        <v>6.193093093093214</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.850650650650693</v>
+        <v>2.61821821821827</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.633233233233391</v>
+        <v>9.767967967968158</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.5500000000004</v>
+        <v>25.15000000000049</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>4.226211422242443e-05</v>
+        <v>0.003235624085636712</v>
       </c>
       <c r="I11" t="n">
-        <v>4.226211422242443e-05</v>
+        <v>0.003235624085636712</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>55.1717268904669</v>
+        <v>42.06438011866459</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[28.582866018421726, 81.76058776251207]</t>
+          <t>[12.165476420493903, 71.96328381683527]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.0001329343166338592</v>
+        <v>0.006865770427760376</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0001329343166338592</v>
+        <v>0.006865770427760376</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.786210838077079</v>
+        <v>-1.408842351159387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.364842518017542, -1.2075791581366166]</t>
+          <t>[-2.264210921506157, -0.5534737808126167]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.483857809958522e-07</v>
+        <v>0.00180489128076422</v>
       </c>
       <c r="S11" t="n">
-        <v>1.483857809958522e-07</v>
+        <v>0.00180489128076422</v>
       </c>
       <c r="T11" t="n">
-        <v>61.52454466214379</v>
+        <v>60.12060128338094</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[45.79773642562797, 77.2513528986596]</t>
+          <t>[43.12080813235467, 77.12039443440722]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>5.167870575917277e-10</v>
+        <v>6.698104071389821e-09</v>
       </c>
       <c r="W11" t="n">
-        <v>5.167870575917277e-10</v>
+        <v>6.698104071389821e-09</v>
       </c>
       <c r="X11" t="n">
-        <v>6.97917917917929</v>
+        <v>5.639239239239348</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.718318318318392</v>
+        <v>2.215415415415459</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.240040040040189</v>
+        <v>9.063063063063238</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_0_square_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.1/cosinor_per_day_fixed_period_0_square_0.1_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3.462542164101023e-08</v>
+        <v>0.001247000350522609</v>
       </c>
       <c r="I2" t="n">
-        <v>3.462542164101023e-08</v>
+        <v>0.001247000350522609</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>60.66627607951715</v>
+        <v>40.2600640200132</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[36.77702247559904, 84.55552968343525]</t>
+          <t>[15.779857897029174, 64.74027014299723]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>6.271387400502704e-06</v>
+        <v>0.001830748413676586</v>
       </c>
       <c r="O2" t="n">
-        <v>6.271387400502704e-06</v>
+        <v>0.001830748413676586</v>
       </c>
       <c r="P2" t="n">
-        <v>2.182447749340658</v>
+        <v>1.528342372016657</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.792500312859043, 2.5723951858222724]</t>
+          <t>[0.6981317007977337, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>0.0005714058083976514</v>
       </c>
       <c r="S2" t="n">
-        <v>1.06581410364015e-14</v>
+        <v>0.0005714058083976514</v>
       </c>
       <c r="T2" t="n">
-        <v>60.39289084692335</v>
+        <v>63.01991088588568</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.912051322166306, 72.8737303716804]</t>
+          <t>[48.03002507010123, 78.00979670167013]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.157296480869263e-12</v>
+        <v>7.264633339332249e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.157296480869263e-12</v>
+        <v>7.264633339332249e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>16.94938938938979</v>
+        <v>19.42594594594638</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.33763763763801</v>
+        <v>16.03411411411447</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.56114114114158</v>
+        <v>22.81777777777828</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001162856580482208</v>
+        <v>0.004138184987452664</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001162856580482208</v>
+        <v>0.004138184987452664</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.08778163160643</v>
+        <v>43.37845439634503</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[23.120853840658086, 79.05470942255478]</t>
+          <t>[11.003979165972211, 75.75292962671786]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0006227802674536598</v>
+        <v>0.009768183773631867</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0006227802674536598</v>
+        <v>0.009768183773631867</v>
       </c>
       <c r="P3" t="n">
-        <v>1.289342330302117</v>
+        <v>1.13839493553504</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.6729738016698859, 1.9057108589343477]</t>
+          <t>[0.30818426431611545, 1.9686056067539637]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.0001193954919762596</v>
+        <v>0.0082935387073102</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001193954919762596</v>
+        <v>0.0082935387073102</v>
       </c>
       <c r="T3" t="n">
-        <v>60.6148913010818</v>
+        <v>59.35270350464832</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[44.89977636708264, 76.33000623508097]</t>
+          <t>[41.676547367400126, 77.0288596418965]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.501173016066787e-10</v>
+        <v>2.291507117391234e-08</v>
       </c>
       <c r="W3" t="n">
-        <v>7.501173016066787e-10</v>
+        <v>2.291507117391234e-08</v>
       </c>
       <c r="X3" t="n">
-        <v>20.64082082082132</v>
+        <v>21.01907907907955</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.09321321321365</v>
+        <v>17.62724724724765</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.18842842842898</v>
+        <v>24.41091091091146</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>5.092953192187277e-05</v>
+        <v>7.932315733816253e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>5.092953192187277e-05</v>
+        <v>7.932315733816253e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>67.90801604408148</v>
+        <v>55.03597503098204</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[31.35186700813245, 104.46416508003051]</t>
+          <t>[28.551260072391187, 81.52068998957289]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.000516066722537456</v>
+        <v>0.000130389936496611</v>
       </c>
       <c r="O4" t="n">
-        <v>0.000516066722537456</v>
+        <v>0.000130389936496611</v>
       </c>
       <c r="P4" t="n">
-        <v>0.735868549489501</v>
+        <v>0.8616580451287321</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.2201316173686534, 1.2516054816103486]</t>
+          <t>[0.3962369112635784, 1.3270791789938858]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.006170650697357782</v>
+        <v>0.0005362249137057518</v>
       </c>
       <c r="S4" t="n">
-        <v>0.006170650697357782</v>
+        <v>0.0005362249137057518</v>
       </c>
       <c r="T4" t="n">
-        <v>70.00408831373407</v>
+        <v>58.77825339146541</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[51.09280786407818, 88.91536876338996]</t>
+          <t>[44.820447954169886, 72.73605882876095]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.16102713501698e-09</v>
+        <v>6.934786078716115e-11</v>
       </c>
       <c r="W4" t="n">
-        <v>2.16102713501698e-09</v>
+        <v>6.934786078716115e-11</v>
       </c>
       <c r="X4" t="n">
-        <v>22.92846846846902</v>
+        <v>22.14968968969018</v>
       </c>
       <c r="Y4" t="n">
-        <v>20.79679679679729</v>
+        <v>20.24820820820866</v>
       </c>
       <c r="Z4" t="n">
-        <v>25.06014014014074</v>
+        <v>24.05117117117171</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>8.442234152761241e-05</v>
+        <v>0.002600961770796606</v>
       </c>
       <c r="I5" t="n">
-        <v>8.442234152761241e-05</v>
+        <v>0.002600961770796606</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>58.34801399331155</v>
+        <v>44.0258336548648</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[29.238736204734167, 87.45729178188893]</t>
+          <t>[13.240532072271492, 74.81113523745812]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0002077543971854556</v>
+        <v>0.00606333635507994</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0002077543971854556</v>
+        <v>0.00606333635507994</v>
       </c>
       <c r="P5" t="n">
-        <v>0.3585000625718084</v>
+        <v>0.3710790121357324</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.22013161736865428, 0.9371317425122712]</t>
+          <t>[-0.39623691126357485, 1.1383949355350396]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.2185337462402988</v>
+        <v>0.3352469232701347</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2185337462402988</v>
+        <v>0.3352469232701347</v>
       </c>
       <c r="T5" t="n">
-        <v>68.84336299860581</v>
+        <v>60.04622849840332</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[52.331235342062996, 85.35549065514863]</t>
+          <t>[43.63461403931227, 76.45784295749438]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>9.168532599801438e-11</v>
+        <v>2.898360662584309e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>9.168532599801438e-11</v>
+        <v>2.898360662584309e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>24.48822822822881</v>
+        <v>24.15395395395449</v>
       </c>
       <c r="Y5" t="n">
-        <v>22.09659659659712</v>
+        <v>21.01907907907955</v>
       </c>
       <c r="Z5" t="n">
-        <v>26.8798598598605</v>
+        <v>27.28882882882943</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001219809814260397</v>
+        <v>0.0005790641094547411</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001219809814260397</v>
+        <v>0.0005790641094547411</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>43.38461606112249</v>
+        <v>50.56820167380013</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.713139427331598, 71.05609269491337]</t>
+          <t>[21.462413728113688, 79.67398961948658]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.002837384147732269</v>
+        <v>0.001063697451538115</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002837384147732269</v>
+        <v>0.001063697451538115</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.2390000417145384</v>
+        <v>0.1320789704211931</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.9685791164220783, 0.49057903299300154]</t>
+          <t>[-0.5849211547224229, 0.8490790955648091]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.5127499295517957</v>
+        <v>0.7123643647020863</v>
       </c>
       <c r="S6" t="n">
-        <v>0.5127499295517957</v>
+        <v>0.7123643647020863</v>
       </c>
       <c r="T6" t="n">
-        <v>67.76964284941288</v>
+        <v>61.42467556355981</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[52.42061741338472, 83.11866828544103]</t>
+          <t>[44.86785211004111, 77.9814990170785]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.796940374276801e-11</v>
+        <v>2.043050839617422e-09</v>
       </c>
       <c r="W6" t="n">
-        <v>1.796940374276801e-11</v>
+        <v>2.043050839617422e-09</v>
       </c>
       <c r="X6" t="n">
-        <v>0.9878478478478705</v>
+        <v>25.13039039039095</v>
       </c>
       <c r="Y6" t="n">
-        <v>-2.027687687687739</v>
+        <v>22.20108108108158</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.003383383383479</v>
+        <v>28.05969969970032</v>
       </c>
     </row>
     <row r="7">
@@ -995,7 +995,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.292125954543977e-05</v>
+        <v>0.0009572766816259293</v>
       </c>
       <c r="I7" t="n">
-        <v>1.292125954543977e-05</v>
+        <v>0.0009572766816259293</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>58.95675279055251</v>
+        <v>51.3511518016733</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[28.957953778203432, 88.95555180290158]</t>
+          <t>[19.05374271701031, 83.64856088633628]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0002654984500507496</v>
+        <v>0.002503706697794872</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0002654984500507496</v>
+        <v>0.002503706697794872</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5912106295043857</v>
+        <v>-0.4025263860455386</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.1069475616252324, -0.07547369738353904]</t>
+          <t>[-1.1069475616252324, 0.3018947895341553]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.02560033529143357</v>
+        <v>0.2558456697330398</v>
       </c>
       <c r="S7" t="n">
-        <v>0.02560033529143357</v>
+        <v>0.2558456697330398</v>
       </c>
       <c r="T7" t="n">
-        <v>73.62751606790103</v>
+        <v>73.03374301002364</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[57.88776042809127, 89.36727170771078]</t>
+          <t>[55.016763632706315, 91.05072238734097]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>3.250066882287683e-12</v>
+        <v>1.989475251207296e-10</v>
       </c>
       <c r="W7" t="n">
-        <v>3.250066882287683e-12</v>
+        <v>1.989475251207296e-10</v>
       </c>
       <c r="X7" t="n">
-        <v>2.443623623623683</v>
+        <v>1.644524524524559</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.3119519519519613</v>
+        <v>-1.233393393393424</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.575295295295405</v>
+        <v>4.522442442442543</v>
       </c>
     </row>
     <row r="8">
@@ -1081,7 +1081,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.97000000000062</v>
+        <v>25.67000000000057</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001541061788941089</v>
+        <v>0.01932619542551195</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001541061788941089</v>
+        <v>0.01932619542551195</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>50.75187419528145</v>
+        <v>35.92997644760376</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[19.26995262010422, 82.23379577045867]</t>
+          <t>[2.8721734299535058, 68.98777946525402]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.00220674558812517</v>
+        <v>0.03381819969233923</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00220674558812517</v>
+        <v>0.03381819969233923</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.7170001251436169</v>
+        <v>-1.106947561625232</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2956318050840787, -0.13836844520315505]</t>
+          <t>[-2.251631971942234, 0.037736848691769076]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.01630266950170522</v>
+        <v>0.05770530273449048</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01630266950170522</v>
+        <v>0.05770530273449048</v>
       </c>
       <c r="T8" t="n">
-        <v>56.66591671683103</v>
+        <v>58.40019329186399</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[40.7329740739031, 72.59885935975896]</t>
+          <t>[40.38414589263394, 76.41624069109405]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>5.83978465584778e-09</v>
+        <v>5.107125145009661e-08</v>
       </c>
       <c r="W8" t="n">
-        <v>5.83978465584778e-09</v>
+        <v>5.107125145009661e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>2.963543543543615</v>
+        <v>4.522442442442543</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.5719119119119287</v>
+        <v>-0.1541741741741776</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.355175175175301</v>
+        <v>9.199059059059262</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>25.15000000000049</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>8.546725352043261e-05</v>
+        <v>0.00135959338257241</v>
       </c>
       <c r="I9" t="n">
-        <v>8.546725352043261e-05</v>
+        <v>0.00135959338257241</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>51.4641115454054</v>
+        <v>43.53134984846501</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[22.550296062310835, 80.37792702849997]</t>
+          <t>[12.60167795931428, 74.46102173761574]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0008256520003879775</v>
+        <v>0.006845916525188844</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0008256520003879775</v>
+        <v>0.006845916525188844</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.119526511189155</v>
+        <v>-0.6792632764518469</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.7233160902574642, -0.5157369321208467]</t>
+          <t>[-1.3585265529036947, 8.881784197001252e-16]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.0005271026078337293</v>
+        <v>0.05000000044112785</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0005271026078337293</v>
+        <v>0.05000000044112785</v>
       </c>
       <c r="T9" t="n">
-        <v>67.49945576877728</v>
+        <v>67.04011859945706</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[51.94938006663972, 83.04953147091484]</t>
+          <t>[50.918761313242385, 83.16147588567173]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.934985587899064e-11</v>
+        <v>9.853851068442054e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>2.934985587899064e-11</v>
+        <v>9.853851068442054e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>4.48118118118127</v>
+        <v>2.805405405405473</v>
       </c>
       <c r="Y9" t="n">
-        <v>2.064364364364406</v>
+        <v>-1.77635683940025e-15</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.897997997998135</v>
+        <v>5.610810810810948</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>25.15000000000049</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.003659314374704237</v>
+        <v>0.01569222892959221</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003659314374704237</v>
+        <v>0.01569222892959221</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>41.98735553859395</v>
+        <v>29.51702525633713</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[13.68992514043498, 70.28478593675293]</t>
+          <t>[3.778168411330185, 55.25588210134407]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>0.004529329455255082</v>
+        <v>0.02554597772896638</v>
       </c>
       <c r="O10" t="n">
-        <v>0.004529329455255082</v>
+        <v>0.02554597772896638</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.547210796362541</v>
+        <v>-1.308210754648002</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.4403162154010807, -0.6541053773240013]</t>
+          <t>[-2.5409478119124653, -0.07547369738353815]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>0.001095654488354247</v>
+        <v>0.03803304095419158</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001095654488354247</v>
+        <v>0.03803304095419158</v>
       </c>
       <c r="T10" t="n">
-        <v>62.42782407981408</v>
+        <v>52.53743719991087</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[45.28102707188113, 79.57462108774703]</t>
+          <t>[38.00155557961521, 67.07331882020654]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.277776716714698e-09</v>
+        <v>3.928871672442824e-09</v>
       </c>
       <c r="W10" t="n">
-        <v>3.277776716714698e-09</v>
+        <v>3.928871672442824e-09</v>
       </c>
       <c r="X10" t="n">
-        <v>6.193093093093214</v>
+        <v>5.403003003003132</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.61821821821827</v>
+        <v>0.3117117117117187</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.767967967968158</v>
+        <v>10.49429429429454</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>25.15000000000049</v>
+        <v>25.95000000000062</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.003235624085636712</v>
+        <v>1.703929043750385e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003235624085636712</v>
+        <v>1.703929043750385e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>42.06438011866459</v>
+        <v>61.97891021262941</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[12.165476420493903, 71.96328381683527]</t>
+          <t>[38.83709652637236, 85.12072389888645]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.006865770427760376</v>
+        <v>2.450629408734528e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>0.006865770427760376</v>
+        <v>2.450629408734528e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.408842351159387</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-2.264210921506157, -0.5534737808126167]</t>
+          <t>[-2.0629477284833877, -1.0817896624973864]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>0.00180489128076422</v>
+        <v>6.566796417750709e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>0.00180489128076422</v>
+        <v>6.566796417750709e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>60.12060128338094</v>
+        <v>72.73081567762134</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[43.12080813235467, 77.12039443440722]</t>
+          <t>[57.49249260881824, 87.96913874642443]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>6.698104071389821e-09</v>
+        <v>1.763700296919524e-12</v>
       </c>
       <c r="W11" t="n">
-        <v>6.698104071389821e-09</v>
+        <v>1.763700296919524e-12</v>
       </c>
       <c r="X11" t="n">
-        <v>5.639239239239348</v>
+        <v>6.493993993994149</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.215415415415459</v>
+        <v>4.467867867867975</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.063063063063238</v>
+        <v>8.520120120120323</v>
       </c>
     </row>
   </sheetData>
